--- a/CollectionSoftware/AV STORE(2).xlsx
+++ b/CollectionSoftware/AV STORE(2).xlsx
@@ -413,35 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>2023-06-30</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>4716</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2023-06-30</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4716</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/CollectionSoftware/AV STORE(2).xlsx
+++ b/CollectionSoftware/AV STORE(2).xlsx
@@ -413,14 +413,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2023-07-11</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>2214</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>